--- a/inst/testdata/latlon/testpoints_50.xlsx
+++ b/inst/testdata/latlon/testpoints_50.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,1268 +360,823 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>siteid</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>lat</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>lon</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>REGISTRY_ID</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMARY_NAME</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>NAICS</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SIC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>PGM_SYS_ACRNMS</t>
+          <t>sitename</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>40.70842</v>
+      </c>
+      <c r="B2">
+        <v>-73.68794</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>33.41215</v>
-      </c>
-      <c r="C2">
-        <v>-90.21210000000001</v>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>110012157520</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>Example name for site 1</t>
         </is>
-      </c>
-      <c r="F2">
-        <v>722410</v>
-      </c>
-      <c r="G2">
-        <v>5992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>40.402318</v>
+      </c>
+      <c r="B3">
+        <v>-80.021434</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>42.677217</v>
-      </c>
-      <c r="C3">
-        <v>-73.82130600000001</v>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>110020822671</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>Example name for site 2</t>
         </is>
-      </c>
-      <c r="F3">
-        <v>722410</v>
-      </c>
-      <c r="G3">
-        <v>5992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>42.971881</v>
+      </c>
+      <c r="B4">
+        <v>-74.251524</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>42.0937</v>
-      </c>
-      <c r="C4">
-        <v>-78.444169</v>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>110021850558</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Example name for site 3</t>
         </is>
-      </c>
-      <c r="F4">
-        <v>722410</v>
-      </c>
-      <c r="G4">
-        <v>5992</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>40.546328</v>
+      </c>
+      <c r="B5">
+        <v>-74.180041</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>33.6628</v>
-      </c>
-      <c r="C5">
-        <v>-84.443448</v>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>110022674319</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Example name for site 4</t>
         </is>
-      </c>
-      <c r="F5">
-        <v>722410</v>
-      </c>
-      <c r="G5">
-        <v>5992</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>34.25923</v>
+      </c>
+      <c r="B6">
+        <v>-119.21122</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>29.78694</v>
-      </c>
-      <c r="C6">
-        <v>-98.69777999999999</v>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>110022693307</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Example name for site 5</t>
         </is>
-      </c>
-      <c r="F6">
-        <v>722410</v>
-      </c>
-      <c r="G6">
-        <v>5992</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>34.054239</v>
+      </c>
+      <c r="B7">
+        <v>-84.082357</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>27.405</v>
-      </c>
-      <c r="C7">
-        <v>-98.0967</v>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>110022742264</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Example name for site 6</t>
         </is>
-      </c>
-      <c r="F7">
-        <v>722410</v>
-      </c>
-      <c r="G7">
-        <v>5992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>34.006241</v>
+      </c>
+      <c r="B8">
+        <v>-118.108506</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>40.80759</v>
-      </c>
-      <c r="C8">
-        <v>-72.71138999999999</v>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>110022742282</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Example name for site 7</t>
         </is>
-      </c>
-      <c r="F8">
-        <v>722410</v>
-      </c>
-      <c r="G8">
-        <v>5992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>42.6316</v>
+      </c>
+      <c r="B9">
+        <v>-83.29357</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>43.19939</v>
-      </c>
-      <c r="C9">
-        <v>-76.95923000000001</v>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>110022742308</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>Example name for site 8</t>
         </is>
-      </c>
-      <c r="F9">
-        <v>722410</v>
-      </c>
-      <c r="G9">
-        <v>5992</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>40.81924</v>
+      </c>
+      <c r="B10">
+        <v>-73.95306600000001</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>40.53939</v>
-      </c>
-      <c r="C10">
-        <v>-74.37269000000001</v>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>110030905858</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>Example name for site 9</t>
         </is>
-      </c>
-      <c r="F10">
-        <v>722410</v>
-      </c>
-      <c r="G10">
-        <v>5992</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>31.538639</v>
+      </c>
+      <c r="B11">
+        <v>-81.49475</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>41.041575</v>
-      </c>
-      <c r="C11">
-        <v>-74.721493</v>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>110032375873</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
           <t>Example name for site 10</t>
         </is>
-      </c>
-      <c r="F11">
-        <v>722410</v>
-      </c>
-      <c r="G11">
-        <v>5992</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>32.76954</v>
+      </c>
+      <c r="B12">
+        <v>-117.01181</v>
+      </c>
+      <c r="C12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>40.709362</v>
-      </c>
-      <c r="C12">
-        <v>-73.855604</v>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>110033681077</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>Example name for site 11</t>
         </is>
-      </c>
-      <c r="F12">
-        <v>722410</v>
-      </c>
-      <c r="G12">
-        <v>5992</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>37.92035</v>
+      </c>
+      <c r="B13">
+        <v>-81.60257</v>
+      </c>
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>41.865167</v>
-      </c>
-      <c r="C13">
-        <v>-88.10516</v>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>110037118482</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>Example name for site 12</t>
         </is>
-      </c>
-      <c r="F13">
-        <v>722410</v>
-      </c>
-      <c r="G13">
-        <v>5992</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>30.344561</v>
+      </c>
+      <c r="B14">
+        <v>-94.180835</v>
+      </c>
+      <c r="C14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>40.83788</v>
-      </c>
-      <c r="C14">
-        <v>-73.71164</v>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>110037118598</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
           <t>Example name for site 13</t>
         </is>
-      </c>
-      <c r="F14">
-        <v>722410</v>
-      </c>
-      <c r="G14">
-        <v>5992</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>40.743653</v>
+      </c>
+      <c r="B15">
+        <v>-73.990604</v>
+      </c>
+      <c r="C15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>43.13964</v>
-      </c>
-      <c r="C15">
-        <v>-96.29459</v>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>110037371073</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
           <t>Example name for site 14</t>
         </is>
-      </c>
-      <c r="F15">
-        <v>722410</v>
-      </c>
-      <c r="G15">
-        <v>5992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>41.79761</v>
+      </c>
+      <c r="B16">
+        <v>-72.66642</v>
+      </c>
+      <c r="C16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>30.38913</v>
-      </c>
-      <c r="C16">
-        <v>-84.26268</v>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>110039062698</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t>Example name for site 15</t>
         </is>
-      </c>
-      <c r="F16">
-        <v>722410</v>
-      </c>
-      <c r="G16">
-        <v>5992</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>39.2702</v>
+      </c>
+      <c r="B17">
+        <v>-94.67177</v>
+      </c>
+      <c r="C17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>36.447929</v>
-      </c>
-      <c r="C17">
-        <v>-80.291349</v>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>110044605790</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
           <t>Example name for site 16</t>
         </is>
-      </c>
-      <c r="F17">
-        <v>722410</v>
-      </c>
-      <c r="G17">
-        <v>5992</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>39.52611</v>
+      </c>
+      <c r="B18">
+        <v>-87.39802</v>
+      </c>
+      <c r="C18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>44.746381</v>
-      </c>
-      <c r="C18">
-        <v>-93.32059099999999</v>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>110046345442</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
           <t>Example name for site 17</t>
         </is>
-      </c>
-      <c r="F18">
-        <v>722410</v>
-      </c>
-      <c r="G18">
-        <v>5992</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>44.508477</v>
+      </c>
+      <c r="B19">
+        <v>-73.08423500000001</v>
+      </c>
+      <c r="C19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>36.90125</v>
-      </c>
-      <c r="C19">
-        <v>-88.58027800000001</v>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>110055617738</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>Example name for site 18</t>
         </is>
-      </c>
-      <c r="F19">
-        <v>722410</v>
-      </c>
-      <c r="G19">
-        <v>5992</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>25.777084</v>
+      </c>
+      <c r="B20">
+        <v>-80.316587</v>
+      </c>
+      <c r="C20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>44.975544</v>
-      </c>
-      <c r="C20">
-        <v>-93.269695</v>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>110064486818</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
           <t>Example name for site 19</t>
         </is>
-      </c>
-      <c r="F20">
-        <v>722410</v>
-      </c>
-      <c r="G20">
-        <v>5992</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>33.07138</v>
+      </c>
+      <c r="B21">
+        <v>-97.02714</v>
+      </c>
+      <c r="C21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>41.98062</v>
-      </c>
-      <c r="C21">
-        <v>-77.8805</v>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>110070429548</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
           <t>Example name for site 20</t>
         </is>
-      </c>
-      <c r="F21">
-        <v>722410</v>
-      </c>
-      <c r="G21">
-        <v>5992</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>37.87057</v>
+      </c>
+      <c r="B22">
+        <v>-94.03044</v>
+      </c>
+      <c r="C22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>35.455086</v>
-      </c>
-      <c r="C22">
-        <v>-89.426689</v>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>110070536853</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
           <t>Example name for site 21</t>
         </is>
-      </c>
-      <c r="F22">
-        <v>722410</v>
-      </c>
-      <c r="G22">
-        <v>5992</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>32.24755</v>
+      </c>
+      <c r="B23">
+        <v>-110.85063</v>
+      </c>
+      <c r="C23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>37.820086</v>
-      </c>
-      <c r="C23">
-        <v>-89.23330300000001</v>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>110070581169</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t>Example name for site 22</t>
         </is>
-      </c>
-      <c r="F23">
-        <v>722410</v>
-      </c>
-      <c r="G23">
-        <v>5992</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>32.615895</v>
+      </c>
+      <c r="B24">
+        <v>-93.28631900000001</v>
+      </c>
+      <c r="C24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>40.56413</v>
-      </c>
-      <c r="C24">
-        <v>-122.34882</v>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>110070826244</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
           <t>Example name for site 23</t>
         </is>
-      </c>
-      <c r="F24">
-        <v>722410</v>
-      </c>
-      <c r="G24">
-        <v>5992</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>39.884</v>
+      </c>
+      <c r="B25">
+        <v>-86.00608</v>
+      </c>
+      <c r="C25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>42.50246</v>
-      </c>
-      <c r="C25">
-        <v>-70.85595000000001</v>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>110070892116</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
           <t>Example name for site 24</t>
         </is>
-      </c>
-      <c r="F25">
-        <v>722410</v>
-      </c>
-      <c r="G25">
-        <v>5992</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>37.67313</v>
+      </c>
+      <c r="B26">
+        <v>-97.37344</v>
+      </c>
+      <c r="C26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>40.71204</v>
-      </c>
-      <c r="C26">
-        <v>-73.82532999999999</v>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>110071357916</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
           <t>Example name for site 25</t>
         </is>
-      </c>
-      <c r="F26">
-        <v>722410</v>
-      </c>
-      <c r="G26">
-        <v>5992</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <v>33.77927</v>
+      </c>
+      <c r="B27">
+        <v>-117.23693</v>
+      </c>
+      <c r="C27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>37.81944</v>
-      </c>
-      <c r="C27">
-        <v>-85.46346</v>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Example name for site 26</t>
         </is>
-      </c>
-      <c r="F27">
-        <v>722410</v>
-      </c>
-      <c r="G27">
-        <v>5992</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>29.269648</v>
+      </c>
+      <c r="B28">
+        <v>-94.828215</v>
+      </c>
+      <c r="C28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>41.190989</v>
-      </c>
-      <c r="C28">
-        <v>-73.13517299999999</v>
-      </c>
-      <c r="E28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Example name for site 27</t>
         </is>
-      </c>
-      <c r="F28">
-        <v>722410</v>
-      </c>
-      <c r="G28">
-        <v>5992</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
+        <v>40.43115</v>
+      </c>
+      <c r="B29">
+        <v>-76.44665000000001</v>
+      </c>
+      <c r="C29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>32.59734</v>
-      </c>
-      <c r="C29">
-        <v>-80.16248</v>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Example name for site 28</t>
         </is>
-      </c>
-      <c r="F29">
-        <v>722410</v>
-      </c>
-      <c r="G29">
-        <v>5992</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>42.06615</v>
+      </c>
+      <c r="B30">
+        <v>-71.01639</v>
+      </c>
+      <c r="C30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>36.316029</v>
-      </c>
-      <c r="C30">
-        <v>-121.216076</v>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Example name for site 29</t>
         </is>
-      </c>
-      <c r="F30">
-        <v>722410</v>
-      </c>
-      <c r="G30">
-        <v>5992</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>36.54572</v>
+      </c>
+      <c r="B31">
+        <v>-82.55157</v>
+      </c>
+      <c r="C31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>40.081533</v>
-      </c>
-      <c r="C31">
-        <v>-109.46567</v>
-      </c>
-      <c r="E31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Example name for site 30</t>
         </is>
-      </c>
-      <c r="F31">
-        <v>722410</v>
-      </c>
-      <c r="G31">
-        <v>5992</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
+        <v>41.0999</v>
+      </c>
+      <c r="B32">
+        <v>-111.92138</v>
+      </c>
+      <c r="C32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>45.07818</v>
-      </c>
-      <c r="C32">
-        <v>-93.33799999999999</v>
-      </c>
-      <c r="E32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Example name for site 31</t>
         </is>
-      </c>
-      <c r="F32">
-        <v>722410</v>
-      </c>
-      <c r="G32">
-        <v>5992</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>42.18515</v>
+      </c>
+      <c r="B33">
+        <v>-73.29647</v>
+      </c>
+      <c r="C33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>35.07733</v>
-      </c>
-      <c r="C33">
-        <v>-106.63713</v>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Example name for site 32</t>
         </is>
-      </c>
-      <c r="F33">
-        <v>722410</v>
-      </c>
-      <c r="G33">
-        <v>5992</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
+        <v>47.960934</v>
+      </c>
+      <c r="B34">
+        <v>-91.522789</v>
+      </c>
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>32.742036</v>
-      </c>
-      <c r="C34">
-        <v>-115.735408</v>
-      </c>
-      <c r="E34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Example name for site 33</t>
         </is>
-      </c>
-      <c r="F34">
-        <v>722410</v>
-      </c>
-      <c r="G34">
-        <v>5992</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <v>40.75724</v>
+      </c>
+      <c r="B35">
+        <v>-86.08335</v>
+      </c>
+      <c r="C35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>43.530916</v>
-      </c>
-      <c r="C35">
-        <v>-75.430092</v>
-      </c>
-      <c r="E35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Example name for site 34</t>
         </is>
-      </c>
-      <c r="F35">
-        <v>722410</v>
-      </c>
-      <c r="G35">
-        <v>5992</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>41.83857</v>
+      </c>
+      <c r="B36">
+        <v>-72.49066999999999</v>
+      </c>
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>33.094625</v>
-      </c>
-      <c r="C36">
-        <v>-95.040955</v>
-      </c>
-      <c r="E36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Example name for site 35</t>
         </is>
-      </c>
-      <c r="F36">
-        <v>722410</v>
-      </c>
-      <c r="G36">
-        <v>5992</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <v>40.30425</v>
+      </c>
+      <c r="B37">
+        <v>-74.03927</v>
+      </c>
+      <c r="C37">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>40.74966</v>
-      </c>
-      <c r="C37">
-        <v>-73.32473</v>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Example name for site 36</t>
         </is>
-      </c>
-      <c r="F37">
-        <v>722410</v>
-      </c>
-      <c r="G37">
-        <v>5992</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
+        <v>40.02192</v>
+      </c>
+      <c r="B38">
+        <v>-121.10645</v>
+      </c>
+      <c r="C38">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>47.29674</v>
-      </c>
-      <c r="C38">
-        <v>-122.38219</v>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Example name for site 37</t>
         </is>
-      </c>
-      <c r="F38">
-        <v>722410</v>
-      </c>
-      <c r="G38">
-        <v>5992</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>32.174982</v>
+      </c>
+      <c r="B39">
+        <v>-91.725544</v>
+      </c>
+      <c r="C39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>40.55663</v>
-      </c>
-      <c r="C39">
-        <v>-84.197626</v>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Example name for site 38</t>
         </is>
-      </c>
-      <c r="F39">
-        <v>722410</v>
-      </c>
-      <c r="G39">
-        <v>5992</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
+        <v>46.01869</v>
+      </c>
+      <c r="B40">
+        <v>-94.63432</v>
+      </c>
+      <c r="C40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>37.856947</v>
-      </c>
-      <c r="C40">
-        <v>-122.119834</v>
-      </c>
-      <c r="E40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Example name for site 39</t>
         </is>
-      </c>
-      <c r="F40">
-        <v>722410</v>
-      </c>
-      <c r="G40">
-        <v>5992</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
+        <v>41.44268</v>
+      </c>
+      <c r="B41">
+        <v>-74.41015</v>
+      </c>
+      <c r="C41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>32.71316</v>
-      </c>
-      <c r="C41">
-        <v>-96.81434400000001</v>
-      </c>
-      <c r="E41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Example name for site 40</t>
         </is>
-      </c>
-      <c r="F41">
-        <v>722410</v>
-      </c>
-      <c r="G41">
-        <v>5992</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <v>29.67161</v>
+      </c>
+      <c r="B42">
+        <v>-95.54656</v>
+      </c>
+      <c r="C42">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>45.250756</v>
-      </c>
-      <c r="C42">
-        <v>-92.270567</v>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Example name for site 41</t>
         </is>
-      </c>
-      <c r="F42">
-        <v>722410</v>
-      </c>
-      <c r="G42">
-        <v>5992</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <v>32.37868</v>
+      </c>
+      <c r="B43">
+        <v>-106.83186</v>
+      </c>
+      <c r="C43">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>37.305583</v>
-      </c>
-      <c r="C43">
-        <v>-121.856472</v>
-      </c>
-      <c r="E43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Example name for site 42</t>
         </is>
-      </c>
-      <c r="F43">
-        <v>722410</v>
-      </c>
-      <c r="G43">
-        <v>5992</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
+        <v>31.83607</v>
+      </c>
+      <c r="B44">
+        <v>-86.6164</v>
+      </c>
+      <c r="C44">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>44.25207</v>
-      </c>
-      <c r="C44">
-        <v>-105.70231</v>
-      </c>
-      <c r="E44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Example name for site 43</t>
         </is>
-      </c>
-      <c r="F44">
-        <v>722410</v>
-      </c>
-      <c r="G44">
-        <v>5992</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <v>36.33291</v>
+      </c>
+      <c r="B45">
+        <v>-78.43339</v>
+      </c>
+      <c r="C45">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>37.97735</v>
-      </c>
-      <c r="C45">
-        <v>-122.04326</v>
-      </c>
-      <c r="E45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Example name for site 44</t>
         </is>
-      </c>
-      <c r="F45">
-        <v>722410</v>
-      </c>
-      <c r="G45">
-        <v>5992</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
+        <v>33.45142</v>
+      </c>
+      <c r="B46">
+        <v>-112.133352</v>
+      </c>
+      <c r="C46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>29.9397</v>
-      </c>
-      <c r="C46">
-        <v>-99.8416</v>
-      </c>
-      <c r="E46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Example name for site 45</t>
         </is>
-      </c>
-      <c r="F46">
-        <v>722410</v>
-      </c>
-      <c r="G46">
-        <v>5992</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
+        <v>33.137383</v>
+      </c>
+      <c r="B47">
+        <v>-88.160926</v>
+      </c>
+      <c r="C47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>33.13602</v>
-      </c>
-      <c r="C47">
-        <v>-117.17951</v>
-      </c>
-      <c r="E47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Example name for site 46</t>
         </is>
-      </c>
-      <c r="F47">
-        <v>722410</v>
-      </c>
-      <c r="G47">
-        <v>5992</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>41.553</v>
+      </c>
+      <c r="B48">
+        <v>-92.41222</v>
+      </c>
+      <c r="C48">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>33.971453</v>
-      </c>
-      <c r="C48">
-        <v>-83.938892</v>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Example name for site 47</t>
         </is>
-      </c>
-      <c r="F48">
-        <v>722410</v>
-      </c>
-      <c r="G48">
-        <v>5992</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
+        <v>47.02535</v>
+      </c>
+      <c r="B49">
+        <v>-122.92638</v>
+      </c>
+      <c r="C49">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>46.35523</v>
-      </c>
-      <c r="C49">
-        <v>-98.27794</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Example name for site 48</t>
         </is>
-      </c>
-      <c r="F49">
-        <v>722410</v>
-      </c>
-      <c r="G49">
-        <v>5992</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
+        <v>40.53042</v>
+      </c>
+      <c r="B50">
+        <v>-75.40431</v>
+      </c>
+      <c r="C50">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>37.975608</v>
-      </c>
-      <c r="C50">
-        <v>-122.043484</v>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Example name for site 49</t>
         </is>
-      </c>
-      <c r="F50">
-        <v>722410</v>
-      </c>
-      <c r="G50">
-        <v>5992</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
+        <v>39.74994</v>
+      </c>
+      <c r="B51">
+        <v>-105.22111</v>
+      </c>
+      <c r="C51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>41.568102</v>
-      </c>
-      <c r="C51">
-        <v>-85.82753</v>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Example name for site 50</t>
         </is>
-      </c>
-      <c r="F51">
-        <v>722410</v>
-      </c>
-      <c r="G51">
-        <v>5992</v>
       </c>
     </row>
   </sheetData>
